--- a/CellModules_LCSC_BillOfMaterials.xlsx
+++ b/CellModules_LCSC_BillOfMaterials.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stuartp\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18100"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>LCSC Part Number</t>
   </si>
@@ -113,12 +117,6 @@
     <t>https://lcsc.com/product-detail/MOSFET_Infineon-Technologies_IRLML6244TRPBF_Infineon-Technologies-IRLML6244TRPBF_C143946.html</t>
   </si>
   <si>
-    <t>C17414</t>
-  </si>
-  <si>
-    <t>0805W8F1002T5E</t>
-  </si>
-  <si>
     <t>Uniroyal Elec</t>
   </si>
   <si>
@@ -128,22 +126,7 @@
     <t>100\100</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0805W8F1002T5E_C17414.html</t>
-  </si>
-  <si>
-    <t>C115316</t>
-  </si>
-  <si>
-    <t>RS-05K1001FT</t>
-  </si>
-  <si>
-    <t>Guangdong Fenghua Advanced Tech</t>
-  </si>
-  <si>
     <t>Chip Resistor - Surface Mount 1KOhms ±1% 1/8W 0805 RoHS</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_1KR-1001-1_C115316.html</t>
   </si>
   <si>
     <t>C126351</t>
@@ -419,23 +402,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -446,31 +420,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -760,35 +741,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="94.262695" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="179.241943" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="179.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -839,7 +819,6 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>16</v>
       </c>
@@ -853,16 +832,16 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>0.0167</v>
+        <v>1.67E-2</v>
       </c>
       <c r="K2">
-        <v>0.835</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -875,7 +854,6 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>22</v>
       </c>
@@ -889,16 +867,16 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>0.0197</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="K3">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -911,7 +889,6 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>29</v>
       </c>
@@ -925,31 +902,30 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <v>0.1058</v>
+        <v>0.10580000000000001</v>
       </c>
       <c r="K4">
-        <v>2.116</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -958,178 +934,173 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>0.0014</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="K5">
-        <v>0.14</v>
+        <v>0.46</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="K6">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6">
-        <v>0.0014</v>
-      </c>
-      <c r="K6">
-        <v>0.14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7"/>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="J7">
-        <v>0.0046</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K7">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8"/>
+        <v>15</v>
+      </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>0.197</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>2.955</v>
+        <v>0.44</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J9">
-        <v>0.0066</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="K9">
-        <v>0.33</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -1141,31 +1112,30 @@
         <v>23</v>
       </c>
       <c r="J10">
-        <v>0.022</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="K10">
-        <v>0.44</v>
+        <v>0.372</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11"/>
+        <v>67</v>
+      </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -1177,139 +1147,135 @@
         <v>23</v>
       </c>
       <c r="J11">
-        <v>0.0239</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="K11">
-        <v>0.478</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12"/>
+        <v>73</v>
+      </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="J12">
-        <v>0.0186</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="K12">
-        <v>0.372</v>
+        <v>1.4359999999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13"/>
+        <v>15</v>
+      </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>0.0197</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K13">
-        <v>0.394</v>
+        <v>0.15</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14"/>
+        <v>15</v>
+      </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K14">
+        <v>0.15</v>
+      </c>
+      <c r="L14" t="s">
         <v>82</v>
       </c>
-      <c r="J14">
-        <v>0.0359</v>
-      </c>
-      <c r="K14">
-        <v>1.436</v>
-      </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -1318,10 +1284,10 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K15">
         <v>0.15</v>
@@ -1330,7 +1296,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -1338,14 +1304,13 @@
         <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -1354,34 +1319,33 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16">
-        <v>0.0015</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="K16">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17"/>
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <v>2512</v>
+      </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -1390,34 +1354,33 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J17">
-        <v>0.0015</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K17">
-        <v>0.15</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -1426,34 +1389,33 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J18">
-        <v>0.0017</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="K18">
-        <v>0.17</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>2512</v>
-      </c>
-      <c r="E19"/>
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -1462,106 +1424,103 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="J19">
-        <v>0.025</v>
+        <v>1.4E-3</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20"/>
+        <v>106</v>
+      </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J20">
-        <v>0.0044</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="K20">
-        <v>0.44</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21"/>
+        <v>112</v>
+      </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21">
-        <v>0.0014</v>
-      </c>
-      <c r="K21">
-        <v>0.14</v>
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" t="s">
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22"/>
+        <v>15</v>
+      </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -1570,138 +1529,56 @@
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>0.0279</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="K22">
-        <v>0.558</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23"/>
+        <v>15</v>
+      </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" t="s">
-        <v>121</v>
+        <v>18</v>
+      </c>
+      <c r="J23">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K23">
+        <v>0.95</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" t="s">
         <v>125</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>0.0691</v>
-      </c>
-      <c r="K24">
-        <v>1.382</v>
-      </c>
-      <c r="L24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>0.0095</v>
-      </c>
-      <c r="K25">
-        <v>0.95</v>
-      </c>
-      <c r="L25" t="s">
-        <v>132</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>